--- a/Feb'2021/07.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/07.02.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Sheet2" sheetId="48" r:id="rId6"/>
     <sheet name="Extra Stock" sheetId="49" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="51" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="52" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -137,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="174">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -635,6 +636,30 @@
   </si>
   <si>
     <t>07.02.2021</t>
+  </si>
+  <si>
+    <t>Opening Capital January-2021</t>
+  </si>
+  <si>
+    <t>Sales Commission January-2021</t>
+  </si>
+  <si>
+    <t>BL DD Commission January-2021</t>
+  </si>
+  <si>
+    <t>Total Commission January-2021</t>
+  </si>
+  <si>
+    <t>General Cost January-2021</t>
+  </si>
+  <si>
+    <t>Salary December-2021</t>
+  </si>
+  <si>
+    <t>Total Cost January-2021</t>
+  </si>
+  <si>
+    <t>Net Profit January-2021</t>
   </si>
 </sst>
 </file>
@@ -645,7 +670,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +919,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1615,7 +1670,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2294,6 +2349,18 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2349,18 +2416,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2464,6 +2519,29 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="40" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="39" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="41" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2869,67 +2947,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="240"/>
+      <c r="L1" s="240"/>
+      <c r="M1" s="240"/>
+      <c r="N1" s="240"/>
+      <c r="O1" s="240"/>
+      <c r="P1" s="240"/>
+      <c r="Q1" s="240"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
-      <c r="H2" s="237"/>
-      <c r="I2" s="237"/>
-      <c r="J2" s="237"/>
-      <c r="K2" s="237"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="237"/>
-      <c r="Q2" s="237"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="241"/>
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="241"/>
+      <c r="O2" s="241"/>
+      <c r="P2" s="241"/>
+      <c r="Q2" s="241"/>
     </row>
     <row r="3" spans="1:24" s="98" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="248" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="245"/>
-      <c r="P3" s="245"/>
-      <c r="Q3" s="246"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="250"/>
       <c r="S3" s="99"/>
       <c r="T3" s="100"/>
       <c r="U3" s="100"/>
@@ -2938,52 +3016,52 @@
       <c r="X3" s="101"/>
     </row>
     <row r="4" spans="1:24" s="101" customFormat="1">
-      <c r="A4" s="238" t="s">
+      <c r="A4" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="234" t="s">
+      <c r="D4" s="238" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="234" t="s">
+      <c r="E4" s="238" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="234" t="s">
+      <c r="F4" s="238" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="234" t="s">
+      <c r="G4" s="238" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="234" t="s">
+      <c r="H4" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="234" t="s">
+      <c r="I4" s="238" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="234" t="s">
+      <c r="J4" s="238" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="247" t="s">
+      <c r="K4" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="249" t="s">
+      <c r="L4" s="253" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="251" t="s">
+      <c r="M4" s="255" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="253" t="s">
+      <c r="N4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="255" t="s">
+      <c r="O4" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="242" t="s">
+      <c r="P4" s="246" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="206" t="s">
@@ -2996,22 +3074,22 @@
       <c r="W4" s="100"/>
     </row>
     <row r="5" spans="1:24" s="101" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="239"/>
-      <c r="B5" s="241"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235"/>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235"/>
-      <c r="J5" s="235"/>
-      <c r="K5" s="248"/>
-      <c r="L5" s="250"/>
-      <c r="M5" s="252"/>
-      <c r="N5" s="254"/>
-      <c r="O5" s="256"/>
-      <c r="P5" s="243"/>
+      <c r="A5" s="243"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="239"/>
+      <c r="J5" s="239"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="256"/>
+      <c r="N5" s="235"/>
+      <c r="O5" s="237"/>
+      <c r="P5" s="247"/>
       <c r="Q5" s="207" t="s">
         <v>36</v>
       </c>
@@ -5855,12 +5933,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A4:A5"/>
@@ -5874,6 +5946,12 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8147,7 +8225,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E16"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10427,7 +10505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
     </sheetView>
@@ -12098,4 +12176,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26.25">
+      <c r="A1" s="292" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="293"/>
+    </row>
+    <row r="2" spans="1:2" ht="17.25">
+      <c r="A2" s="294" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="295">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25">
+      <c r="A3" s="296" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="297">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25">
+      <c r="A4" s="298"/>
+      <c r="B4" s="299"/>
+    </row>
+    <row r="5" spans="1:2" ht="17.25">
+      <c r="A5" s="294" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="295">
+        <v>69211.707999999984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25">
+      <c r="A6" s="294" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="295">
+        <v>149337.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25">
+      <c r="A7" s="296" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="297">
+        <f>SUM(B5:B6)</f>
+        <v>218549.20799999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25">
+      <c r="A8" s="298"/>
+      <c r="B8" s="299"/>
+    </row>
+    <row r="9" spans="1:2" ht="17.25">
+      <c r="A9" s="294" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="295">
+        <v>66538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25">
+      <c r="A10" s="294" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="295">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25">
+      <c r="A11" s="296" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="297">
+        <f>SUM(B9:B10)</f>
+        <v>104038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.25">
+      <c r="A12" s="298"/>
+      <c r="B12" s="299"/>
+    </row>
+    <row r="13" spans="1:2" ht="20.25" thickBot="1">
+      <c r="A13" s="300" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="301">
+        <f>B7-B11</f>
+        <v>114511.20799999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="291"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Feb'2021/07.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/07.02.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2349,184 +2349,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="39" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2542,6 +2365,183 @@
     <xf numFmtId="0" fontId="40" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="41" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2947,67 +2947,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="243" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
-      <c r="L1" s="240"/>
-      <c r="M1" s="240"/>
-      <c r="N1" s="240"/>
-      <c r="O1" s="240"/>
-      <c r="P1" s="240"/>
-      <c r="Q1" s="240"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="243"/>
+      <c r="P1" s="243"/>
+      <c r="Q1" s="243"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="244" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="241"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="241"/>
-      <c r="M2" s="241"/>
-      <c r="N2" s="241"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="241"/>
-      <c r="Q2" s="241"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="244"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
     </row>
     <row r="3" spans="1:24" s="98" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="253" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="249"/>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="249"/>
-      <c r="Q3" s="250"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="255"/>
       <c r="S3" s="99"/>
       <c r="T3" s="100"/>
       <c r="U3" s="100"/>
@@ -3016,52 +3016,52 @@
       <c r="X3" s="101"/>
     </row>
     <row r="4" spans="1:24" s="101" customFormat="1">
-      <c r="A4" s="242" t="s">
+      <c r="A4" s="245" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="244" t="s">
+      <c r="B4" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="244" t="s">
+      <c r="C4" s="247" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="238" t="s">
+      <c r="D4" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="238" t="s">
+      <c r="E4" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="238" t="s">
+      <c r="F4" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="238" t="s">
+      <c r="G4" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="238" t="s">
+      <c r="H4" s="249" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="238" t="s">
+      <c r="I4" s="249" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="238" t="s">
+      <c r="J4" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="251" t="s">
+      <c r="K4" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="253" t="s">
+      <c r="L4" s="258" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="255" t="s">
+      <c r="M4" s="260" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="234" t="s">
+      <c r="N4" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="236" t="s">
+      <c r="O4" s="264" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="246" t="s">
+      <c r="P4" s="251" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="206" t="s">
@@ -3074,22 +3074,22 @@
       <c r="W4" s="100"/>
     </row>
     <row r="5" spans="1:24" s="101" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="243"/>
-      <c r="B5" s="245"/>
-      <c r="C5" s="245"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="239"/>
-      <c r="I5" s="239"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="256"/>
-      <c r="N5" s="235"/>
-      <c r="O5" s="237"/>
-      <c r="P5" s="247"/>
+      <c r="A5" s="246"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="250"/>
+      <c r="I5" s="250"/>
+      <c r="J5" s="250"/>
+      <c r="K5" s="257"/>
+      <c r="L5" s="259"/>
+      <c r="M5" s="261"/>
+      <c r="N5" s="263"/>
+      <c r="O5" s="265"/>
+      <c r="P5" s="252"/>
       <c r="Q5" s="207" t="s">
         <v>36</v>
       </c>
@@ -5933,6 +5933,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A4:A5"/>
@@ -5949,9 +5952,6 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5978,12 +5978,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="266" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="259"/>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="268"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -5998,12 +5998,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18">
-      <c r="A2" s="260" t="s">
+      <c r="A2" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="260"/>
-      <c r="C2" s="260"/>
-      <c r="D2" s="260"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -7924,8 +7924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7936,28 +7936,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="270" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="261"/>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
+      <c r="A2" s="270"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="262" t="s">
+      <c r="A3" s="271" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="262"/>
+      <c r="B3" s="271"/>
+      <c r="C3" s="271"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="263"/>
-      <c r="B4" s="263"/>
-      <c r="C4" s="263"/>
+      <c r="A4" s="272"/>
+      <c r="B4" s="272"/>
+      <c r="C4" s="272"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="136" t="s">
@@ -8246,25 +8246,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="276" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="269"/>
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="278"/>
       <c r="G1" s="22"/>
       <c r="H1" s="138"/>
       <c r="I1" s="138"/>
     </row>
     <row r="2" spans="1:12" ht="21.75">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="279" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="272"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="281"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
@@ -8289,11 +8289,11 @@
       <c r="D4" s="19"/>
       <c r="E4" s="84"/>
       <c r="F4" s="29"/>
-      <c r="J4" s="273" t="s">
+      <c r="J4" s="282" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="274"/>
-      <c r="L4" s="275"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="284"/>
     </row>
     <row r="5" spans="1:12" ht="22.5">
       <c r="A5" s="85" t="s">
@@ -8568,11 +8568,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="264"/>
-      <c r="B17" s="265"/>
-      <c r="C17" s="265"/>
-      <c r="D17" s="265"/>
-      <c r="E17" s="266"/>
+      <c r="A17" s="273"/>
+      <c r="B17" s="274"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="274"/>
+      <c r="E17" s="275"/>
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:9">
@@ -8711,108 +8711,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="288" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="279"/>
-      <c r="O1" s="279"/>
-      <c r="P1" s="279"/>
-      <c r="Q1" s="279"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
+      <c r="P1" s="288"/>
+      <c r="Q1" s="288"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="279"/>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
-      <c r="L2" s="279"/>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="288"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="288"/>
+      <c r="P2" s="288"/>
+      <c r="Q2" s="288"/>
     </row>
     <row r="3" spans="1:17" s="131" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="280" t="s">
+      <c r="A3" s="289" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="280"/>
-      <c r="H3" s="280"/>
-      <c r="I3" s="280"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="280"/>
-      <c r="N3" s="280"/>
-      <c r="O3" s="280"/>
-      <c r="P3" s="280"/>
-      <c r="Q3" s="280"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
+      <c r="M3" s="289"/>
+      <c r="N3" s="289"/>
+      <c r="O3" s="289"/>
+      <c r="P3" s="289"/>
+      <c r="Q3" s="289"/>
     </row>
     <row r="4" spans="1:17" s="131" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="290" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="281"/>
-      <c r="C4" s="281"/>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="281"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="281"/>
-      <c r="M4" s="281"/>
-      <c r="N4" s="281"/>
-      <c r="O4" s="281"/>
-      <c r="P4" s="281"/>
-      <c r="Q4" s="281"/>
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="290"/>
+      <c r="J4" s="290"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="290"/>
+      <c r="M4" s="290"/>
+      <c r="N4" s="290"/>
+      <c r="O4" s="290"/>
+      <c r="P4" s="290"/>
+      <c r="Q4" s="290"/>
     </row>
     <row r="5" spans="1:17" s="131" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="291" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="283"/>
-      <c r="C5" s="282" t="s">
+      <c r="B5" s="292"/>
+      <c r="C5" s="291" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284"/>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="284"/>
-      <c r="K5" s="284"/>
-      <c r="L5" s="284"/>
-      <c r="M5" s="284"/>
-      <c r="N5" s="284"/>
-      <c r="O5" s="284"/>
-      <c r="P5" s="283"/>
+      <c r="D5" s="293"/>
+      <c r="E5" s="293"/>
+      <c r="F5" s="293"/>
+      <c r="G5" s="293"/>
+      <c r="H5" s="293"/>
+      <c r="I5" s="293"/>
+      <c r="J5" s="293"/>
+      <c r="K5" s="293"/>
+      <c r="L5" s="293"/>
+      <c r="M5" s="293"/>
+      <c r="N5" s="293"/>
+      <c r="O5" s="293"/>
+      <c r="P5" s="292"/>
       <c r="Q5" s="141"/>
     </row>
     <row r="6" spans="1:17" s="121" customFormat="1" ht="18" customHeight="1">
@@ -9394,11 +9394,11 @@
       <c r="Q27" s="184"/>
     </row>
     <row r="28" spans="1:17" s="130" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="276" t="s">
+      <c r="A28" s="285" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="277"/>
-      <c r="C28" s="278"/>
+      <c r="B28" s="286"/>
+      <c r="C28" s="287"/>
       <c r="D28" s="149">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -10131,12 +10131,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1">
-      <c r="B1" s="285" t="s">
+      <c r="B1" s="294" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="287"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="296"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1">
       <c r="B2" s="151" t="s">
@@ -10531,111 +10531,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" customHeight="1">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="288" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="279"/>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
-      <c r="H1" s="279"/>
-      <c r="I1" s="279"/>
-      <c r="J1" s="279"/>
-      <c r="K1" s="279"/>
-      <c r="L1" s="279"/>
-      <c r="M1" s="279"/>
-      <c r="N1" s="279"/>
-      <c r="O1" s="279"/>
-      <c r="P1" s="279"/>
-      <c r="Q1" s="279"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
+      <c r="P1" s="288"/>
+      <c r="Q1" s="288"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="279"/>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
-      <c r="L2" s="279"/>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="279"/>
+      <c r="A2" s="288"/>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="288"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="288"/>
+      <c r="P2" s="288"/>
+      <c r="Q2" s="288"/>
     </row>
     <row r="3" spans="1:18" s="131" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="280" t="s">
+      <c r="A3" s="289" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="280"/>
-      <c r="H3" s="280"/>
-      <c r="I3" s="280"/>
-      <c r="J3" s="280"/>
-      <c r="K3" s="280"/>
-      <c r="L3" s="280"/>
-      <c r="M3" s="280"/>
-      <c r="N3" s="280"/>
-      <c r="O3" s="280"/>
-      <c r="P3" s="280"/>
-      <c r="Q3" s="280"/>
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
+      <c r="M3" s="289"/>
+      <c r="N3" s="289"/>
+      <c r="O3" s="289"/>
+      <c r="P3" s="289"/>
+      <c r="Q3" s="289"/>
     </row>
     <row r="4" spans="1:18" s="131" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="290" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="281"/>
-      <c r="C4" s="281"/>
-      <c r="D4" s="281"/>
-      <c r="E4" s="281"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="281"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="281"/>
-      <c r="M4" s="281"/>
-      <c r="N4" s="281"/>
-      <c r="O4" s="281"/>
-      <c r="P4" s="281"/>
-      <c r="Q4" s="281"/>
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="290"/>
+      <c r="J4" s="290"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="290"/>
+      <c r="M4" s="290"/>
+      <c r="N4" s="290"/>
+      <c r="O4" s="290"/>
+      <c r="P4" s="290"/>
+      <c r="Q4" s="290"/>
     </row>
     <row r="5" spans="1:18" s="131" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="288" t="s">
+      <c r="A5" s="297" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="289"/>
+      <c r="B5" s="298"/>
       <c r="C5" s="185"/>
       <c r="D5" s="186" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="186"/>
-      <c r="F5" s="284" t="s">
+      <c r="F5" s="293" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="284"/>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="284"/>
-      <c r="K5" s="284"/>
-      <c r="L5" s="284"/>
-      <c r="M5" s="284"/>
-      <c r="N5" s="284"/>
-      <c r="O5" s="284"/>
-      <c r="P5" s="284"/>
-      <c r="Q5" s="283"/>
+      <c r="G5" s="293"/>
+      <c r="H5" s="293"/>
+      <c r="I5" s="293"/>
+      <c r="J5" s="293"/>
+      <c r="K5" s="293"/>
+      <c r="L5" s="293"/>
+      <c r="M5" s="293"/>
+      <c r="N5" s="293"/>
+      <c r="O5" s="293"/>
+      <c r="P5" s="293"/>
+      <c r="Q5" s="292"/>
     </row>
     <row r="6" spans="1:18" s="121" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="142" t="s">
@@ -11246,11 +11246,11 @@
       <c r="Q27" s="194"/>
     </row>
     <row r="28" spans="1:17" s="130" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="276" t="s">
+      <c r="A28" s="285" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="277"/>
-      <c r="C28" s="278"/>
+      <c r="B28" s="286"/>
+      <c r="C28" s="287"/>
       <c r="D28" s="149">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -11982,10 +11982,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75">
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="299" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="290"/>
+      <c r="C1" s="299"/>
     </row>
     <row r="2" spans="2:3" ht="15.75">
       <c r="B2" s="233" t="s">
@@ -12182,7 +12182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -12193,100 +12193,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="300" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="293"/>
+      <c r="B1" s="301"/>
     </row>
     <row r="2" spans="1:2" ht="17.25">
-      <c r="A2" s="294" t="s">
+      <c r="A2" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="295">
+      <c r="B2" s="236">
         <v>300000</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="237" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="297">
+      <c r="B3" s="238">
         <v>2000000</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
-      <c r="A4" s="298"/>
-      <c r="B4" s="299"/>
+      <c r="A4" s="239"/>
+      <c r="B4" s="240"/>
     </row>
     <row r="5" spans="1:2" ht="17.25">
-      <c r="A5" s="294" t="s">
+      <c r="A5" s="235" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="295">
+      <c r="B5" s="236">
         <v>69211.707999999984</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25">
-      <c r="A6" s="294" t="s">
+      <c r="A6" s="235" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="295">
+      <c r="B6" s="236">
         <v>149337.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25">
-      <c r="A7" s="296" t="s">
+      <c r="A7" s="237" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="297">
+      <c r="B7" s="238">
         <f>SUM(B5:B6)</f>
         <v>218549.20799999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
-      <c r="A8" s="298"/>
-      <c r="B8" s="299"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="240"/>
     </row>
     <row r="9" spans="1:2" ht="17.25">
-      <c r="A9" s="294" t="s">
+      <c r="A9" s="235" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="295">
+      <c r="B9" s="236">
         <v>66538</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
-      <c r="A10" s="294" t="s">
+      <c r="A10" s="235" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="295">
+      <c r="B10" s="236">
         <v>37500</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25">
-      <c r="A11" s="296" t="s">
+      <c r="A11" s="237" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="297">
+      <c r="B11" s="238">
         <f>SUM(B9:B10)</f>
         <v>104038</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
-      <c r="A12" s="298"/>
-      <c r="B12" s="299"/>
+      <c r="A12" s="239"/>
+      <c r="B12" s="240"/>
     </row>
     <row r="13" spans="1:2" ht="20.25" thickBot="1">
-      <c r="A13" s="300" t="s">
+      <c r="A13" s="241" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="301">
+      <c r="B13" s="242">
         <f>B7-B11</f>
         <v>114511.20799999998</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="291"/>
+      <c r="B14" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="1">
